--- a/Dokumentumok/Projekttervező.xlsx
+++ b/Dokumentumok/Projekttervező.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C155FB2C-D6C0-4B0B-AFC7-F3BDD6EB88A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Projekttervező" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <definedName name="TénylegTervenFelül">IdőszakTényleges*(Projekttervező!$E1&gt;0)</definedName>
     <definedName name="Terv">IdőszakTerv*(Projekttervező!$C1&gt;0)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -157,9 +156,6 @@
     </r>
   </si>
   <si>
-    <t>1 időszak = 5 nap</t>
-  </si>
-  <si>
     <t>Feladat specifikáció</t>
   </si>
   <si>
@@ -200,12 +196,15 @@
   </si>
   <si>
     <t>13_S1_4_vizsgaremek projektterv</t>
+  </si>
+  <si>
+    <t>1 időszak = 7 nap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,6 +562,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -605,33 +610,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% kész" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% kész ( a terven felül) jelmagyarázat" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="% kész" xfId="16"/>
+    <cellStyle name="% kész ( a terven felül) jelmagyarázat" xfId="18"/>
     <cellStyle name="Cím" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Címke" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Címke" xfId="5"/>
     <cellStyle name="Címsor 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Címsor 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Címsor 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Címsor 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Időszak értéke" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Időszakfejlécek" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Időszak-kiemelés vezérlője" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="Készültségi szint" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Időszak értéke" xfId="13"/>
+    <cellStyle name="Időszakfejlécek" xfId="3"/>
+    <cellStyle name="Időszak-kiemelés vezérlője" xfId="7"/>
+    <cellStyle name="Készültségi szint" xfId="6"/>
     <cellStyle name="Magyarázó szöveg" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normál" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Projektfejlécek" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Tényleges ( a terven felül) jelmagyarázat" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Tényleges jelmagyarázat" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Terv jelmagyarázata" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Tevékenység" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Projektfejlécek" xfId="4"/>
+    <cellStyle name="Tényleges ( a terven felül) jelmagyarázat" xfId="17"/>
+    <cellStyle name="Tényleges jelmagyarázat" xfId="15"/>
+    <cellStyle name="Terv jelmagyarázata" xfId="14"/>
+    <cellStyle name="Tevékenység" xfId="2"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1015,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1023,24 +1022,24 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" customWidth="1"/>
-    <col min="8" max="27" width="3.25" style="1"/>
+    <col min="8" max="27" width="3.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1048,9 +1047,9 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -1063,65 +1062,65 @@
         <v>5</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
       <c r="V2" s="17"/>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="36"/>
+      <c r="X2" s="38"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AI2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-    </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1147,13 +1146,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1335,9 +1334,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="37" t="s">
-        <v>14</v>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -1355,9 +1354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
-        <v>15</v>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
@@ -1375,9 +1374,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
-        <v>16</v>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
@@ -1395,9 +1394,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="37" t="s">
-        <v>17</v>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
@@ -1415,9 +1414,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>19</v>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="6">
         <v>7</v>
@@ -1431,9 +1430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>18</v>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
@@ -1447,9 +1446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>20</v>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -1465,9 +1464,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>21</v>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
@@ -1481,9 +1480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
-        <v>22</v>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="6">
         <v>11</v>
@@ -1497,9 +1496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>23</v>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="6">
         <v>11</v>
@@ -1513,9 +1512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>24</v>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="8">
         <v>15</v>
@@ -1529,9 +1528,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>25</v>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="6">
         <v>7</v>
@@ -1545,9 +1544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>26</v>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="6">
         <v>3</v>
@@ -1561,8 +1560,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37"/>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="23"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1571,8 +1570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="23"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -1581,8 +1580,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="23"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1591,8 +1590,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37"/>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="23"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1601,8 +1600,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1611,8 +1610,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="37"/>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -1621,8 +1620,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="37"/>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="23"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1631,8 +1630,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="37"/>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="23"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1641,8 +1640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="37"/>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="23"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1651,8 +1650,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -1661,8 +1660,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="37"/>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -1671,8 +1670,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="23"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1681,8 +1680,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="37"/>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="23"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1742,24 +1741,24 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekttervező időszakokat használ az időintervallumokhoz. A kezdés=1 az 1. időszakot, az időtartam=5 pedig azt jelenti, hogy a projekt a kezdőidőszaktól számítva 5 időszakon ível át. A diagram frissítéséhez kezdjen el adatokat beírni a B5 cellától." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Írjon be egy 1 és 60 közötti értéket, vagy válasszon egyet a listából. Válassza a MÉGSE lehetőséget, majd nyomja le az ALT+LE, ENTER billentyűkombinációt egy érték kiválasztásához." prompt="Válasszon egy időszakot 1 és 60 között, vagy válasszon egyet a listából. Az ALT+LE billentyűkombinációval navigálhat a listában, majd az ENTER billentyűt lenyomva kiválaszthat egy értéket." sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekttervező időszakokat használ az időintervallumokhoz. A kezdés=1 az 1. időszakot, az időtartam=5 pedig azt jelenti, hogy a projekt a kezdőidőszaktól számítva 5 időszakon ível át. A diagram frissítéséhez kezdjen el adatokat beírni a B5 cellától." sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Írjon be egy 1 és 60 közötti értéket, vagy válasszon egyet a listából. Válassza a MÉGSE lehetőséget, majd nyomja le az ALT+LE, ENTER billentyűkombinációt egy érték kiválasztásához." prompt="Válasszon egy időszakot 1 és 60 között, vagy válasszon egyet a listából. Az ALT+LE billentyűkombinációval navigálhat a listában, majd az ENTER billentyűt lenyomva kiválaszthat egy értéket." sqref="H2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a terv időtartamát jelöli." sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a tényleges időtartamot jelöli" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a projekt készültségi szintjét mutatja" sqref="V2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a tényleges időtartamot jelöli a tervezetten túl" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a projekt készültségi szintjét mutatja a tervezetten túl." sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Az időszakok 1-től 60-ig terjednek a H4-BO4 cellatartományban. " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A tevékenységet a B oszlopban, a B5 cellától kezdve adhatja meg." sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv kezdési időszakát a C oszlopban, a C5 cellától kezdve adhatja meg." sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv időtartamát a D oszlopban, a D5 cellától indulva adhatja meg" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv tényleges kezdési időszakát az E oszlopban, az E5 cellától indulva adhatja meg" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv tényleges időtartamát az F oszlopban, az F5 cellától indulva adhatja meg" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekt készültségi szintjét a G oszlopban, a G5 cellától kezdve adhatja meg." sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekt címe. Ebben a cellában adhatja meg az új címet. A H2 cellában kiemelhet egy időszakot. A diagram jelmagyarázata a J2–AI2 cellákban található." sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Válassza ki a kiemelendő időszakot a H2 cellában. A diagram jelmagyarázata a J2–AI2 cellákban található." sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a terv időtartamát jelöli." sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a tényleges időtartamot jelöli" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a projekt készültségi szintjét mutatja" sqref="V2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a tényleges időtartamot jelöli a tervezetten túl" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Ez a jelmagyarázatot tartalmazó cella a projekt készültségi szintjét mutatja a tervezetten túl." sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Az időszakok 1-től 60-ig terjednek a H4-BO4 cellatartományban. " sqref="H3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A tevékenységet a B oszlopban, a B5 cellától kezdve adhatja meg." sqref="B3:B4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv kezdési időszakát a C oszlopban, a C5 cellától kezdve adhatja meg." sqref="C3:C4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv időtartamát a D oszlopban, a D5 cellától indulva adhatja meg" sqref="D3:D4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv tényleges kezdési időszakát az E oszlopban, az E5 cellától indulva adhatja meg" sqref="E3:E4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A terv tényleges időtartamát az F oszlopban, az F5 cellától indulva adhatja meg" sqref="F3:F4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekt készültségi szintjét a G oszlopban, a G5 cellától kezdve adhatja meg." sqref="G3:G4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A projekt címe. Ebben a cellában adhatja meg az új címet. A H2 cellában kiemelhet egy időszakot. A diagram jelmagyarázata a J2–AI2 cellákban található." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Válassza ki a kiemelendő időszakot a H2 cellában. A diagram jelmagyarázata a J2–AI2 cellákban található." sqref="B2:F2"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
